--- a/Resources/certificationData.xlsx
+++ b/Resources/certificationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="340" windowWidth="21880" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3740" yWindow="340" windowWidth="21880" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="requirements" sheetId="1" r:id="rId1"/>
@@ -633,26 +633,224 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+  <dxfs count="28">
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -684,224 +882,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -910,46 +890,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="75" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1155,6 +1095,66 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="75" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1164,90 +1164,40 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:H6"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Discipline" dataDxfId="26"/>
-    <tableColumn id="2" name="Vision" dataDxfId="25"/>
-    <tableColumn id="3" name="Level One Chair Umpire" dataDxfId="24"/>
-    <tableColumn id="4" name="Level One Line Umpire" dataDxfId="23"/>
-    <tableColumn id="5" name="Level One Referee Course" dataDxfId="22"/>
-    <tableColumn id="6" name="Level One Roving Umpire Course" dataDxfId="21"/>
-    <tableColumn id="7" name="Level Two Referee" dataDxfId="20"/>
-    <tableColumn id="8" name="Level Two Roving Umpire" dataDxfId="19"/>
+    <tableColumn id="1" name="Discipline" dataDxfId="21"/>
+    <tableColumn id="2" name="Vision" dataDxfId="20"/>
+    <tableColumn id="3" name="Level One Chair Umpire" dataDxfId="19"/>
+    <tableColumn id="4" name="Level One Line Umpire" dataDxfId="18"/>
+    <tableColumn id="5" name="Level One Referee Course" dataDxfId="17"/>
+    <tableColumn id="6" name="Level One Roving Umpire Course" dataDxfId="16"/>
+    <tableColumn id="7" name="Level Two Referee" dataDxfId="15"/>
+    <tableColumn id="8" name="Level Two Roving Umpire" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H33" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H33"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="First Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Last Name" dataDxfId="10"/>
-    <tableColumn id="3" name="Email" dataDxfId="9" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Roving Umpire (Sectional)" dataDxfId="8"/>
-    <tableColumn id="5" name="Roving Umpire (USTA)" dataDxfId="7"/>
-    <tableColumn id="6" name="Chair Umpire (Sectional, USTA, National, Professional)" dataDxfId="6"/>
-    <tableColumn id="7" name="Referee (Sectional, USTA, National, Professional)" dataDxfId="5"/>
-    <tableColumn id="8" name="Line Umpire (USTA, National, Professional)" dataDxfId="4"/>
+    <tableColumn id="1" name="First Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Email" dataDxfId="5" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Roving Umpire (Sectional)" dataDxfId="4"/>
+    <tableColumn id="5" name="Roving Umpire (USTA)" dataDxfId="3"/>
+    <tableColumn id="6" name="Chair Umpire (Sectional, USTA, National, Professional)" dataDxfId="2"/>
+    <tableColumn id="7" name="Referee (Sectional, USTA, National, Professional)" dataDxfId="1"/>
+    <tableColumn id="8" name="Line Umpire (USTA, National, Professional)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1577,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1588,7 +1538,7 @@
     <col min="9" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="167">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="164">
       <c r="A1" s="11" t="s">
         <v>75</v>
       </c>
@@ -1749,7 +1699,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A2:AW498">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1779,7 +1729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1792,7 +1742,7 @@
     <col min="10" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="270">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="264">
       <c r="A1" s="30" t="s">
         <v>78</v>
       </c>
@@ -2652,7 +2602,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H500 I2:AP499">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/certificationData.xlsx
+++ b/Resources/certificationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="340" windowWidth="21880" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="12720" yWindow="0" windowWidth="12680" windowHeight="15240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="requirements" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>Level One Referee Course</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>First Name</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>carol.morris@webmail.com</t>
   </si>
 </sst>
 </file>
@@ -482,7 +491,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -584,6 +593,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="37" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="37" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1187,8 +1199,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:H34" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H34"/>
   <tableColumns count="8">
     <tableColumn id="1" name="First Name" dataDxfId="7"/>
     <tableColumn id="2" name="Last Name" dataDxfId="6"/>
@@ -1527,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1727,10 +1739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2598,6 +2610,32 @@
       </c>
       <c r="H33" s="20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2615,10 +2653,13 @@
       <formula1>"0,1"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C34" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Resources/certificationData.xlsx
+++ b/Resources/certificationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="0" windowWidth="12680" windowHeight="15240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6620" yWindow="0" windowWidth="18780" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="requirements" sheetId="1" r:id="rId1"/>
@@ -1741,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
